--- a/_research/dijkstraAlgorithmWorkbook.xlsx
+++ b/_research/dijkstraAlgorithmWorkbook.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC253D-CD25-45B5-89AB-9070F717B16D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD519F44-BB1C-4F32-BED2-916459FF5315}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="45">
   <si>
     <t>Vertex</t>
   </si>
@@ -134,6 +134,33 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>Program Logic</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Start at node N (1 in this example)</t>
+  </si>
+  <si>
+    <t>Iterate through the Connection array checking for connections to Node X with a Weight Y, increasing from 0</t>
+  </si>
+  <si>
+    <t>If a Node matches the weight, add it to list of candidate connections</t>
+  </si>
+  <si>
+    <t>Sort candidate list by weight</t>
+  </si>
+  <si>
+    <t>Check to see if the shortPathTree has been completed</t>
+  </si>
+  <si>
+    <t>If not: restart the loop; If success, print the Shortest Path Tree, and exit the program</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -250,6 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4080,23 +4108,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
+    <col min="20" max="20" width="96.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4114,8 +4153,14 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -4133,8 +4178,14 @@
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -4156,8 +4207,14 @@
       <c r="Q4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" s="9">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -4179,8 +4236,14 @@
       <c r="Q5" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" s="9">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -4202,8 +4265,12 @@
       <c r="Q6" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" s="9"/>
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -4225,8 +4292,12 @@
       <c r="Q7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7" s="9"/>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -4248,8 +4319,12 @@
       <c r="Q8" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8" s="9"/>
+      <c r="T8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -4271,8 +4346,9 @@
       <c r="Q9" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O10" s="5">
         <v>1</v>
       </c>
@@ -4282,8 +4358,9 @@
       <c r="Q10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O11" s="5">
         <v>3</v>
       </c>
@@ -4293,8 +4370,9 @@
       <c r="Q11" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O12" s="5">
         <v>6</v>
       </c>
@@ -4304,8 +4382,9 @@
       <c r="Q12" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O13" s="5">
         <v>7</v>
       </c>
@@ -4315,8 +4394,9 @@
       <c r="Q13" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4329,8 +4409,9 @@
       <c r="Q14" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4352,8 +4433,9 @@
       <c r="Q15" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
